--- a/Docs_files/LoginCredentials.xlsx
+++ b/Docs_files/LoginCredentials.xlsx
@@ -368,7 +368,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,7 +389,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>9870413438</v>
+        <v>9818</v>
       </c>
       <c r="C1">
         <v>5</v>
